--- a/Assets/Resources/CSV/LearnKneeLocalization.xlsx
+++ b/Assets/Resources/CSV/LearnKneeLocalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdude\OneDrive\Pulpit\Unity\Konrad_Dudek-Praca_Magisterska\Assets\Resources\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8B6F35-079D-4CA8-94EF-229EB13D9446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF232D-5904-4778-A299-CA391883C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Element Name</t>
   </si>
@@ -44,24 +44,109 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Rzepka</t>
-  </si>
-  <si>
-    <t>Opis</t>
-  </si>
-  <si>
     <t>Kość Udowa</t>
   </si>
   <si>
-    <t>Opis kości udowej</t>
+    <t>Więzadło rzepki</t>
+  </si>
+  <si>
+    <t>Miejsce przyczepu końcowego mięśnia czworogłowego uda pomiędzy rzepką a guzowatością kości piszczelowej</t>
+  </si>
+  <si>
+    <t>Więzadło krzyżowe przednie</t>
+  </si>
+  <si>
+    <t>Przebiega od powierzchni przyśrodkowej kłykcia bocznego kości udowej przednio-przyśrodkowo do pola międzykłykciowego przedniego kości piszczelowej</t>
+  </si>
+  <si>
+    <t>Więzadło krzyżowe tylne</t>
+  </si>
+  <si>
+    <t>Przebiega od powierzchni przyśrodkowej kłykcia przyśrodkowego do dołu, do pola międzykłykciowego tylnego</t>
+  </si>
+  <si>
+    <t>Więzadło poprzeczne</t>
+  </si>
+  <si>
+    <t>Łączy dwie łękotki od przodu, nie jest pokryte błoną maziową (jedyne prawdziwe więzadło śródstawowe ciała ludzkiego)</t>
+  </si>
+  <si>
+    <t>Łąkotka przyśrodkowa</t>
+  </si>
+  <si>
+    <t>Półkolista, w kształcie litery C
+Przyczepia się do pola międzykłykciowego przedniego i tylnego
+Mocno przytwierdzona przyśrodkowo do torebki stawowej, a bocznie - do więzadła pobocznego piszczelowego, które ogranicza jej ruchomość</t>
+  </si>
+  <si>
+    <t>Łąkotka boczna</t>
+  </si>
+  <si>
+    <t>Prawie całkowicie kolista
+Przyczpia się do pola międzykłykciowego przedniego i tylnego
+Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
+  </si>
+  <si>
+    <t>Jest trzeszczką znajdującą się w mięśnia czworogłowego uda. Jest elementem składowym stawu kolanowgo</t>
+  </si>
+  <si>
+    <t>Kość piszczelowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jest kością o funkcji strukturalnej, tworzącą podudzie. Należy do kości długich. Koniec dalszy kości piszczelowej tworzy kostkę przyśrodkową. </t>
+  </si>
+  <si>
+    <t>To najdłuższa kość ciała ludzkiego. Pokrywa ją gruba warstwa mieśni i w związku z tym jedynie jej niewielki fragment jest dostępny badaniu palpacyjnemu</t>
+  </si>
+  <si>
+    <t>Kłykieć przyśrodkowy</t>
+  </si>
+  <si>
+    <t>Kłykieć boczny</t>
+  </si>
+  <si>
+    <t>Kość strzałkowa</t>
+  </si>
+  <si>
+    <t>Staw piszczelowy</t>
+  </si>
+  <si>
+    <t>Rzepka kolanowa</t>
+  </si>
+  <si>
+    <t>Staw rzepkowy</t>
+  </si>
+  <si>
+    <t>Staw strzałkowy</t>
+  </si>
+  <si>
+    <t>Więzadło poboczne strzałkowe</t>
+  </si>
+  <si>
+    <t>Więzadło poboczne piszczelowe</t>
+  </si>
+  <si>
+    <t>Rozpościera się od przyśrodkowej powierzchni kości udowej aż do przyśrodkowej powierzchni piszczeli, stąd odpowiada za stabilność stawu kolanowego od strony przyśrodkowej (czyli od wewnątrz).</t>
+  </si>
+  <si>
+    <t>Rozpościera się od bocznej powierzchni kości udowej aż do tzw. głowy kości strzałkowej i odpowiada za stabilność kolana od strony bocznej</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,8 +175,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -406,43 +503,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA13F9-4EBF-46CA-BDCD-3827A8DF10DF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/CSV/LearnKneeLocalization.xlsx
+++ b/Assets/Resources/CSV/LearnKneeLocalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdude\OneDrive\Pulpit\Unity\Konrad_Dudek-Praca_Magisterska\Assets\Resources\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CF232D-5904-4778-A299-CA391883C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F1340-0500-4EB1-A820-576B862081F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Element Name</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Więzadło rzepki</t>
-  </si>
-  <si>
-    <t>Miejsce przyczepu końcowego mięśnia czworogłowego uda pomiędzy rzepką a guzowatością kości piszczelowej</t>
   </si>
   <si>
     <t>Więzadło krzyżowe przednie</t>
@@ -87,18 +84,12 @@
 Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
   </si>
   <si>
-    <t>Jest trzeszczką znajdującą się w mięśnia czworogłowego uda. Jest elementem składowym stawu kolanowgo</t>
-  </si>
-  <si>
     <t>Kość piszczelowa</t>
   </si>
   <si>
     <t xml:space="preserve">Jest kością o funkcji strukturalnej, tworzącą podudzie. Należy do kości długich. Koniec dalszy kości piszczelowej tworzy kostkę przyśrodkową. </t>
   </si>
   <si>
-    <t>To najdłuższa kość ciała ludzkiego. Pokrywa ją gruba warstwa mieśni i w związku z tym jedynie jej niewielki fragment jest dostępny badaniu palpacyjnemu</t>
-  </si>
-  <si>
     <t>Kłykieć przyśrodkowy</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>Rzepka kolanowa</t>
   </si>
   <si>
-    <t>Staw rzepkowy</t>
-  </si>
-  <si>
     <t>Staw strzałkowy</t>
   </si>
   <si>
@@ -130,6 +118,21 @@
   </si>
   <si>
     <t>Rozpościera się od bocznej powierzchni kości udowej aż do tzw. głowy kości strzałkowej i odpowiada za stabilność kolana od strony bocznej</t>
+  </si>
+  <si>
+    <t>Jest to kość spłaszczona trójkątna z zaaokgąglonymi brzegami, włączona w ścięgno mięśnia czworogłowego uda i położona od dolnego końca kości udowej.</t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa rzepki</t>
+  </si>
+  <si>
+    <t>Czyli tylna, powyżej wierzchołka pokryta jest grubą warstwą chrząstki szklistej; dzieli się ona na dwa pola, z których pole boczne jest większe od przyśrodkowego; obie te części przedzielone są podłużnie biegnącym wzniesieniem. Odpowiada ono podłużnemu rowkowi na powierzchni rzepkowej kości udowej.</t>
+  </si>
+  <si>
+    <t>Więzadło rzepki łączy ją z kością piszczelową; w ruchach zgięcia i prostowania stawu kolanowego rzepka porusza się razem z kością piszczelową. W przypadku wyprostowanego kolana i napiętych mięśni prostujących część dolna powierzchni stawowej rzepki spoczywa na powierzchni rzepkowej kości udowej, część górna leży powyżej; gdy kolano jest zgięte, rzepka przesuwa się ku dołowi i do tyłu, układa się w rowku między obu kłykciami kości udowej i jest unieruchomiona. Gdy kolano jest wyprostowane i mięśnie rozkurczone, rzepka może być przesuwana na boki. Poniżej powierzchni stawowej znajduje się wypukłe chropowate pole, którego dolna część służy za przyczep więzadła rzepki.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To najdłuższa kość ciała ludzkiego. Jak każda kość długa składa się z trzonu i dwóch końców. Na powierzchni tylnej trzonu zaznacza się wydatna kresa chropowa (linea aspera), złożona z dwóch warg, przyśrodkowej (labium mediale) i bocznej (labium laterale). Ku dołowi obie wargi rozchodząc się ograniczają powierzchnię podkolanową (facies poplitea). Warga przyśrodkowa kończy się u dołu guzkiem przywodziciela (tuberculum adductorium). </t>
   </si>
 </sst>
 </file>
@@ -505,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA13F9-4EBF-46CA-BDCD-3827A8DF10DF}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,122 +526,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV/LearnKneeLocalization.xlsx
+++ b/Assets/Resources/CSV/LearnKneeLocalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdude\OneDrive\Pulpit\Unity\Konrad_Dudek-Praca_Magisterska\Assets\Resources\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F1340-0500-4EB1-A820-576B862081F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8AE6CF-7164-4972-B4F9-C6AB3254145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Element Name</t>
   </si>
@@ -59,13 +59,7 @@
     <t>Więzadło krzyżowe tylne</t>
   </si>
   <si>
-    <t>Przebiega od powierzchni przyśrodkowej kłykcia przyśrodkowego do dołu, do pola międzykłykciowego tylnego</t>
-  </si>
-  <si>
     <t>Więzadło poprzeczne</t>
-  </si>
-  <si>
-    <t>Łączy dwie łękotki od przodu, nie jest pokryte błoną maziową (jedyne prawdziwe więzadło śródstawowe ciała ludzkiego)</t>
   </si>
   <si>
     <t>Łąkotka przyśrodkowa</t>
@@ -93,21 +87,12 @@
     <t>Kłykieć przyśrodkowy</t>
   </si>
   <si>
-    <t>Kłykieć boczny</t>
-  </si>
-  <si>
     <t>Kość strzałkowa</t>
   </si>
   <si>
-    <t>Staw piszczelowy</t>
-  </si>
-  <si>
     <t>Rzepka kolanowa</t>
   </si>
   <si>
-    <t>Staw strzałkowy</t>
-  </si>
-  <si>
     <t>Więzadło poboczne strzałkowe</t>
   </si>
   <si>
@@ -133,6 +118,21 @@
   </si>
   <si>
     <t xml:space="preserve">To najdłuższa kość ciała ludzkiego. Jak każda kość długa składa się z trzonu i dwóch końców. Na powierzchni tylnej trzonu zaznacza się wydatna kresa chropowa (linea aspera), złożona z dwóch warg, przyśrodkowej (labium mediale) i bocznej (labium laterale). Ku dołowi obie wargi rozchodząc się ograniczają powierzchnię podkolanową (facies poplitea). Warga przyśrodkowa kończy się u dołu guzkiem przywodziciela (tuberculum adductorium). </t>
+  </si>
+  <si>
+    <t>Znajduje się po stronie przyśrodkowej goleni i po kości udowej jest najdłuższą kością szkieletu. W przekroju poprzecznym ma kształt trójkątny. U góry, gdzie bierze udział w wytwarzaniu stawu kolanowgo, kość znacznie grubieje, ku dołowi zwęża się, a następnie znowu poszerza, choć w mniejszym stopniu niż u góry. Jak każda kość długa składa się z trzonu i dwóch końców</t>
+  </si>
+  <si>
+    <t>Przebiega od powierzchni przyśrodkowej kłykcia przyśrodkowego do dołu, do pola międzykłykciowego tylnego kości piszczelowej</t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa strzałki</t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa piszczela</t>
+  </si>
+  <si>
+    <t>Więzadło poprzeczne kolana rozpięte jest między najbardziej do przodu położonymi punktami obu łąkotek, łącząc je. Jest to więzadło cienkie, okrągławe, często powstrzymane w rozwoju. Nieraz może go całkowicie brakować. Napina się ono podczas ruchów obrotowych stawu na zewnątrz.</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA13F9-4EBF-46CA-BDCD-3827A8DF10DF}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,18 +528,18 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -571,80 +571,83 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV/LearnKneeLocalization.xlsx
+++ b/Assets/Resources/CSV/LearnKneeLocalization.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdude\OneDrive\Pulpit\Unity\Konrad_Dudek-Praca_Magisterska\Assets\Resources\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8AE6CF-7164-4972-B4F9-C6AB3254145C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4AADD-A71C-42AB-AD54-045444625216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="LearnKneeLocalization" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Element Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Kość Udowa</t>
-  </si>
-  <si>
     <t>Więzadło rzepki</t>
   </si>
   <si>
@@ -65,19 +62,9 @@
     <t>Łąkotka przyśrodkowa</t>
   </si>
   <si>
-    <t>Półkolista, w kształcie litery C
-Przyczepia się do pola międzykłykciowego przedniego i tylnego
-Mocno przytwierdzona przyśrodkowo do torebki stawowej, a bocznie - do więzadła pobocznego piszczelowego, które ogranicza jej ruchomość</t>
-  </si>
-  <si>
     <t>Łąkotka boczna</t>
   </si>
   <si>
-    <t>Prawie całkowicie kolista
-Przyczpia się do pola międzykłykciowego przedniego i tylnego
-Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
-  </si>
-  <si>
     <t>Kość piszczelowa</t>
   </si>
   <si>
@@ -105,18 +92,9 @@
     <t>Rozpościera się od bocznej powierzchni kości udowej aż do tzw. głowy kości strzałkowej i odpowiada za stabilność kolana od strony bocznej</t>
   </si>
   <si>
-    <t>Jest to kość spłaszczona trójkątna z zaaokgąglonymi brzegami, włączona w ścięgno mięśnia czworogłowego uda i położona od dolnego końca kości udowej.</t>
-  </si>
-  <si>
     <t>Powierzchnia stawowa rzepki</t>
   </si>
   <si>
-    <t>Czyli tylna, powyżej wierzchołka pokryta jest grubą warstwą chrząstki szklistej; dzieli się ona na dwa pola, z których pole boczne jest większe od przyśrodkowego; obie te części przedzielone są podłużnie biegnącym wzniesieniem. Odpowiada ono podłużnemu rowkowi na powierzchni rzepkowej kości udowej.</t>
-  </si>
-  <si>
-    <t>Więzadło rzepki łączy ją z kością piszczelową; w ruchach zgięcia i prostowania stawu kolanowego rzepka porusza się razem z kością piszczelową. W przypadku wyprostowanego kolana i napiętych mięśni prostujących część dolna powierzchni stawowej rzepki spoczywa na powierzchni rzepkowej kości udowej, część górna leży powyżej; gdy kolano jest zgięte, rzepka przesuwa się ku dołowi i do tyłu, układa się w rowku między obu kłykciami kości udowej i jest unieruchomiona. Gdy kolano jest wyprostowane i mięśnie rozkurczone, rzepka może być przesuwana na boki. Poniżej powierzchni stawowej znajduje się wypukłe chropowate pole, którego dolna część służy za przyczep więzadła rzepki.</t>
-  </si>
-  <si>
     <t xml:space="preserve">To najdłuższa kość ciała ludzkiego. Jak każda kość długa składa się z trzonu i dwóch końców. Na powierzchni tylnej trzonu zaznacza się wydatna kresa chropowa (linea aspera), złożona z dwóch warg, przyśrodkowej (labium mediale) i bocznej (labium laterale). Ku dołowi obie wargi rozchodząc się ograniczają powierzchnię podkolanową (facies poplitea). Warga przyśrodkowa kończy się u dołu guzkiem przywodziciela (tuberculum adductorium). </t>
   </si>
   <si>
@@ -133,6 +111,39 @@
   </si>
   <si>
     <t>Więzadło poprzeczne kolana rozpięte jest między najbardziej do przodu położonymi punktami obu łąkotek, łącząc je. Jest to więzadło cienkie, okrągławe, często powstrzymane w rozwoju. Nieraz może go całkowicie brakować. Napina się ono podczas ruchów obrotowych stawu na zewnątrz.</t>
+  </si>
+  <si>
+    <t>Więzadło łąkotkowo-udowe tylne</t>
+  </si>
+  <si>
+    <t>Płaska powierzchnia stawowa strzałkowa zlokalizowana jest na kłykciu bocznym kości piszczelowej. Powierzchnia stawowa strzałkowa skierowana jest ku dołowi, ku tyłowi i bocznie i przylega do powierzchni stawowej głowy strzałki.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kłykieć przyśrodkowy stawu kolanowego, zwany również guzkiem przyśrodkowym lub wyrostkiem przyśrodkowym, to ważna struktura anatomiczna w obrębie stawu kolanowego. Jest to wyrostek kostny znajdujący się na wewnętrznej stronie kości udowej, blisko stawu kolanowego. Kłykieć przyśrodkowy jest kluczowy dla stabilności i funkcji stawu kolanowego </t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa kości piszczelowej jest wklęsła i przylega do odpowiedniej powierzchni stawowej kości udowej. Kształt tej powierzchni jest asymetryczny, co pozwala na pewne ograniczenia w ruchomości stawu kolanowego, chroniąc go przed nadmiernymi skręceniami.</t>
+  </si>
+  <si>
+    <t>Więzadło przyczepia się w okolicy tylnego przyczepu łąkotki bocznej. Biegnie ku górze i przyśrodkowo do tyłu od więzadła krzyżowego tylnego. Przeważnie łączy się z nim kończąc się w miejscu jego przyczepu do wewnętrznej powierzchni kłykcia przyśrodkowego kości udowej.</t>
+  </si>
+  <si>
+    <t>Kość udowa</t>
+  </si>
+  <si>
+    <t>Jest to kość spłaszczona trójkątna z zaokrąglonymi brzegami, włączona w ścięgno mięśnia czworogłowego uda i położona od dolnego końca kości udowej.</t>
+  </si>
+  <si>
+    <t>Więzadło rzepki łączy ją z kością piszczelową w ruchach zgięcia i prostowania stawu kolanowego rzepka porusza się razem z kością piszczelową. W przypadku wyprostowanego kolana i napiętych mięśni prostujących część dolna powierzchni stawowej rzepki spoczywa na powierzchni rzepkowej kości udowej, część górna leży powyżej; gdy kolano jest zgięte, rzepka przesuwa się ku dołowi i do tyłu, układa się w rowku między obu kłykciami kości udowej i jest unieruchomiona. Gdy kolano jest wyprostowane i mięśnie rozkurczone, rzepka może być przesuwana na boki. Poniżej powierzchni stawowej znajduje się wypukłe chropowate pole, którego dolna część służy za przyczep więzadła rzepki.</t>
+  </si>
+  <si>
+    <t>Czyli tylna, powyżej wierzchołka pokryta jest grubą warstwą chrząstki szklistej dzieli się ona na dwa pola, z których pole boczne jest większe od przyśrodkowego obie te części przedzielone są podłużnie biegnącym wzniesieniem. Odpowiada ono podłużnemu rowkowi na powierzchni rzepkowej kości udowej.</t>
+  </si>
+  <si>
+    <t>Półkolista, w kształcie litery C.  Przyczepia się do pola międzykłykciowego przedniego i tylnego. Mocno przytwierdzona przyśrodkowo do torebki stawowej, a bocznie - do więzadła pobocznego piszczelowego, które ogranicza jej ruchomość</t>
+  </si>
+  <si>
+    <t>Prawie całkowicie kolista. Przyczpia się do pola międzykłykciowego przedniego i tylnego. Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
   </si>
 </sst>
 </file>
@@ -508,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA13F9-4EBF-46CA-BDCD-3827A8DF10DF}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,126 +539,138 @@
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV/LearnKneeLocalization.xlsx
+++ b/Assets/Resources/CSV/LearnKneeLocalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdude\OneDrive\Pulpit\Unity\Konrad_Dudek-Praca_Magisterska\Assets\Resources\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB4AADD-A71C-42AB-AD54-045444625216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A087AD9-87F6-42D6-A43F-F1F018D3EADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
   </bookViews>
   <sheets>
     <sheet name="LearnKneeLocalization" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Element Name</t>
   </si>
@@ -143,7 +143,58 @@
     <t>Półkolista, w kształcie litery C.  Przyczepia się do pola międzykłykciowego przedniego i tylnego. Mocno przytwierdzona przyśrodkowo do torebki stawowej, a bocznie - do więzadła pobocznego piszczelowego, które ogranicza jej ruchomość</t>
   </si>
   <si>
-    <t>Prawie całkowicie kolista. Przyczpia się do pola międzykłykciowego przedniego i tylnego. Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
+    <t>It is a flattened triangular bone with rounded edges, incorporated into the quadriceps tendon and located at the lower end of the femur.</t>
+  </si>
+  <si>
+    <t>It is a bone with a structural function that forms the lower leg. It belongs to long bones. The distal end of the tibia forms the medial malleolus.</t>
+  </si>
+  <si>
+    <t>It is the longest bone in the human body. Like any long bone, it consists of a shaft and two ends. On the back surface of the body there is a prominent rough line (linea aspera), composed of two lips: the medial one (labium mediale) and the lateral one (labium laterale). Downwards, both lips spread apart and limit the popliteal surface (facies poplitea). The medial lip ends at the bottom with the adductor tubercle (tuberculum adductorium).</t>
+  </si>
+  <si>
+    <t>The patellar ligament connects it to the tibia. During the flexion and extension movements of the knee joint, the patella moves together with the tibia. When the knee is straight and the extensor muscles are tense, the lower part of the articular surface of the patella rests on the patella surface of the femur, the upper part lies above it; when the knee is bent, the patella moves down and back, lies in the groove between the two condyles of the femur and is immobilized. When the knee is straight and the muscles are relaxed, the patella can be moved sideways. Below the articular surface there is a convex rough area, the lower part of which serves as an attachment for the patellar ligament.</t>
+  </si>
+  <si>
+    <t>It runs from the medial surface of the lateral condyle of the femur anteromedial to the anterior intercondylar area of the tibia.</t>
+  </si>
+  <si>
+    <t>It runs from the medial surface of the medial condyle down to the posterior intercondylar area of the tibia.</t>
+  </si>
+  <si>
+    <t>The transverse knee ligament spans between the most forward points of both menisci, connecting them. It is a thin, round ligament, often inhibited in development. Sometimes it may be completely missing. It tightens when the joint rotates outwards.</t>
+  </si>
+  <si>
+    <t>Semicircular, C-shaped. Attached to the anterior and posterior intercondylar area. Firmly attached medially to the joint capsule, and laterally - to the tibial collateral ligament, which limits its mobility</t>
+  </si>
+  <si>
+    <t>Prawie całkowicie kolista. Przyczepia się do pola międzykłykciowego przedniego i tylnego. Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
+  </si>
+  <si>
+    <t>Almost completely circular. It attaches to the anterior and posterior intercondylar areas. It is not attached to the joint capsule, so it is more mobile than the medial meniscus</t>
+  </si>
+  <si>
+    <t>The medial condyle of the knee, also called the medial tubercle or medial process, is an important anatomical structure within the knee joint. This is a bony protrusion located on the inside of the femur, close to the knee joint. The medial condyle is crucial to the stability and function of the knee joint</t>
+  </si>
+  <si>
+    <t>It is located on the medial side of the shin and is the longest bone of the skeleton after the femur. It has a triangular shape in cross-section. At the top, where it is involved in the formation of the knee joint, the bone thickens significantly, tapers downwards, and then widens again, although to a lesser extent than at the top. Like any long bone, it consists of a shaft and two ends</t>
+  </si>
+  <si>
+    <t>The articular surface of the tibia is concave and adheres to the corresponding articular surface of the femur. The shape of this surface is asymmetrical, which allows for certain limitations in the mobility of the knee joint, protecting it against excessive twisting.</t>
+  </si>
+  <si>
+    <t>That is, the posterior one, above the apex, is covered with a thick layer of hyaline cartilage. It is divided into two fields, the lateral field of which is larger than the medial one, both of these parts are divided by a longitudinally running hill. It corresponds to a longitudinal groove on the patella surface of the femur.</t>
+  </si>
+  <si>
+    <t>The flat sagittal articular surface is located on the lateral condyle of the tibia. The articular surface of the fibula is directed downwards, posteriorly and laterally and is adjacent to the articular surface of the head of the fibula.</t>
+  </si>
+  <si>
+    <t>It extends from the lateral surface of the femur to the so-called the head of the fibula and is responsible for the stability of the knee from the lateral side</t>
+  </si>
+  <si>
+    <t>It extends from the medial surface of the femur to the medial surface of the tibia, hence it is responsible for the stability of the knee joint from the medial side (i.e. from the inside).</t>
+  </si>
+  <si>
+    <t>The ligament attaches near the posterior attachment of the lateral meniscus. It runs upwards and medially posteriorly from the posterior cruciate ligament. It usually joins it, ending at its attachment to the inner surface of the medial condyle of the femur.</t>
   </si>
 </sst>
 </file>
@@ -517,19 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA13F9-4EBF-46CA-BDCD-3827A8DF10DF}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -537,140 +589,191 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV/LearnKneeLocalization.xlsx
+++ b/Assets/Resources/CSV/LearnKneeLocalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdude\OneDrive\Pulpit\Unity\Konrad_Dudek-Praca_Magisterska\Assets\Resources\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A087AD9-87F6-42D6-A43F-F1F018D3EADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{689E29DB-09EE-45A1-8C33-7473B9DBA752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{8D4D4752-D6F4-4947-96F6-AEAAB4AF41A2}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Więzadło krzyżowe przednie</t>
   </si>
   <si>
-    <t>Przebiega od powierzchni przyśrodkowej kłykcia bocznego kości udowej przednio-przyśrodkowo do pola międzykłykciowego przedniego kości piszczelowej</t>
-  </si>
-  <si>
     <t>Więzadło krzyżowe tylne</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Kość piszczelowa</t>
   </si>
   <si>
-    <t xml:space="preserve">Jest kością o funkcji strukturalnej, tworzącą podudzie. Należy do kości długich. Koniec dalszy kości piszczelowej tworzy kostkę przyśrodkową. </t>
-  </si>
-  <si>
     <t>Kłykieć przyśrodkowy</t>
   </si>
   <si>
@@ -86,115 +80,121 @@
     <t>Więzadło poboczne piszczelowe</t>
   </si>
   <si>
-    <t>Rozpościera się od przyśrodkowej powierzchni kości udowej aż do przyśrodkowej powierzchni piszczeli, stąd odpowiada za stabilność stawu kolanowego od strony przyśrodkowej (czyli od wewnątrz).</t>
-  </si>
-  <si>
     <t>Rozpościera się od bocznej powierzchni kości udowej aż do tzw. głowy kości strzałkowej i odpowiada za stabilność kolana od strony bocznej</t>
   </si>
   <si>
     <t>Powierzchnia stawowa rzepki</t>
   </si>
   <si>
-    <t xml:space="preserve">To najdłuższa kość ciała ludzkiego. Jak każda kość długa składa się z trzonu i dwóch końców. Na powierzchni tylnej trzonu zaznacza się wydatna kresa chropowa (linea aspera), złożona z dwóch warg, przyśrodkowej (labium mediale) i bocznej (labium laterale). Ku dołowi obie wargi rozchodząc się ograniczają powierzchnię podkolanową (facies poplitea). Warga przyśrodkowa kończy się u dołu guzkiem przywodziciela (tuberculum adductorium). </t>
-  </si>
-  <si>
-    <t>Znajduje się po stronie przyśrodkowej goleni i po kości udowej jest najdłuższą kością szkieletu. W przekroju poprzecznym ma kształt trójkątny. U góry, gdzie bierze udział w wytwarzaniu stawu kolanowgo, kość znacznie grubieje, ku dołowi zwęża się, a następnie znowu poszerza, choć w mniejszym stopniu niż u góry. Jak każda kość długa składa się z trzonu i dwóch końców</t>
-  </si>
-  <si>
-    <t>Przebiega od powierzchni przyśrodkowej kłykcia przyśrodkowego do dołu, do pola międzykłykciowego tylnego kości piszczelowej</t>
-  </si>
-  <si>
     <t>Powierzchnia stawowa strzałki</t>
   </si>
   <si>
     <t>Powierzchnia stawowa piszczela</t>
   </si>
   <si>
-    <t>Więzadło poprzeczne kolana rozpięte jest między najbardziej do przodu położonymi punktami obu łąkotek, łącząc je. Jest to więzadło cienkie, okrągławe, często powstrzymane w rozwoju. Nieraz może go całkowicie brakować. Napina się ono podczas ruchów obrotowych stawu na zewnątrz.</t>
-  </si>
-  <si>
     <t>Więzadło łąkotkowo-udowe tylne</t>
   </si>
   <si>
-    <t>Płaska powierzchnia stawowa strzałkowa zlokalizowana jest na kłykciu bocznym kości piszczelowej. Powierzchnia stawowa strzałkowa skierowana jest ku dołowi, ku tyłowi i bocznie i przylega do powierzchni stawowej głowy strzałki.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kłykieć przyśrodkowy stawu kolanowego, zwany również guzkiem przyśrodkowym lub wyrostkiem przyśrodkowym, to ważna struktura anatomiczna w obrębie stawu kolanowego. Jest to wyrostek kostny znajdujący się na wewnętrznej stronie kości udowej, blisko stawu kolanowego. Kłykieć przyśrodkowy jest kluczowy dla stabilności i funkcji stawu kolanowego </t>
-  </si>
-  <si>
-    <t>Powierzchnia stawowa kości piszczelowej jest wklęsła i przylega do odpowiedniej powierzchni stawowej kości udowej. Kształt tej powierzchni jest asymetryczny, co pozwala na pewne ograniczenia w ruchomości stawu kolanowego, chroniąc go przed nadmiernymi skręceniami.</t>
-  </si>
-  <si>
-    <t>Więzadło przyczepia się w okolicy tylnego przyczepu łąkotki bocznej. Biegnie ku górze i przyśrodkowo do tyłu od więzadła krzyżowego tylnego. Przeważnie łączy się z nim kończąc się w miejscu jego przyczepu do wewnętrznej powierzchni kłykcia przyśrodkowego kości udowej.</t>
-  </si>
-  <si>
     <t>Kość udowa</t>
   </si>
   <si>
-    <t>Jest to kość spłaszczona trójkątna z zaokrąglonymi brzegami, włączona w ścięgno mięśnia czworogłowego uda i położona od dolnego końca kości udowej.</t>
-  </si>
-  <si>
-    <t>Więzadło rzepki łączy ją z kością piszczelową w ruchach zgięcia i prostowania stawu kolanowego rzepka porusza się razem z kością piszczelową. W przypadku wyprostowanego kolana i napiętych mięśni prostujących część dolna powierzchni stawowej rzepki spoczywa na powierzchni rzepkowej kości udowej, część górna leży powyżej; gdy kolano jest zgięte, rzepka przesuwa się ku dołowi i do tyłu, układa się w rowku między obu kłykciami kości udowej i jest unieruchomiona. Gdy kolano jest wyprostowane i mięśnie rozkurczone, rzepka może być przesuwana na boki. Poniżej powierzchni stawowej znajduje się wypukłe chropowate pole, którego dolna część służy za przyczep więzadła rzepki.</t>
-  </si>
-  <si>
-    <t>Czyli tylna, powyżej wierzchołka pokryta jest grubą warstwą chrząstki szklistej dzieli się ona na dwa pola, z których pole boczne jest większe od przyśrodkowego obie te części przedzielone są podłużnie biegnącym wzniesieniem. Odpowiada ono podłużnemu rowkowi na powierzchni rzepkowej kości udowej.</t>
-  </si>
-  <si>
-    <t>Półkolista, w kształcie litery C.  Przyczepia się do pola międzykłykciowego przedniego i tylnego. Mocno przytwierdzona przyśrodkowo do torebki stawowej, a bocznie - do więzadła pobocznego piszczelowego, które ogranicza jej ruchomość</t>
-  </si>
-  <si>
-    <t>It is a flattened triangular bone with rounded edges, incorporated into the quadriceps tendon and located at the lower end of the femur.</t>
-  </si>
-  <si>
-    <t>It is a bone with a structural function that forms the lower leg. It belongs to long bones. The distal end of the tibia forms the medial malleolus.</t>
-  </si>
-  <si>
-    <t>It is the longest bone in the human body. Like any long bone, it consists of a shaft and two ends. On the back surface of the body there is a prominent rough line (linea aspera), composed of two lips: the medial one (labium mediale) and the lateral one (labium laterale). Downwards, both lips spread apart and limit the popliteal surface (facies poplitea). The medial lip ends at the bottom with the adductor tubercle (tuberculum adductorium).</t>
-  </si>
-  <si>
-    <t>The patellar ligament connects it to the tibia. During the flexion and extension movements of the knee joint, the patella moves together with the tibia. When the knee is straight and the extensor muscles are tense, the lower part of the articular surface of the patella rests on the patella surface of the femur, the upper part lies above it; when the knee is bent, the patella moves down and back, lies in the groove between the two condyles of the femur and is immobilized. When the knee is straight and the muscles are relaxed, the patella can be moved sideways. Below the articular surface there is a convex rough area, the lower part of which serves as an attachment for the patellar ligament.</t>
-  </si>
-  <si>
-    <t>It runs from the medial surface of the lateral condyle of the femur anteromedial to the anterior intercondylar area of the tibia.</t>
-  </si>
-  <si>
-    <t>It runs from the medial surface of the medial condyle down to the posterior intercondylar area of the tibia.</t>
-  </si>
-  <si>
-    <t>The transverse knee ligament spans between the most forward points of both menisci, connecting them. It is a thin, round ligament, often inhibited in development. Sometimes it may be completely missing. It tightens when the joint rotates outwards.</t>
-  </si>
-  <si>
-    <t>Semicircular, C-shaped. Attached to the anterior and posterior intercondylar area. Firmly attached medially to the joint capsule, and laterally - to the tibial collateral ligament, which limits its mobility</t>
-  </si>
-  <si>
-    <t>Prawie całkowicie kolista. Przyczepia się do pola międzykłykciowego przedniego i tylnego. Nie jest przytwierdzona do torebki stawowej, więc jest bardziej ruchoma od łąkotki przyśrodkowej</t>
-  </si>
-  <si>
-    <t>Almost completely circular. It attaches to the anterior and posterior intercondylar areas. It is not attached to the joint capsule, so it is more mobile than the medial meniscus</t>
-  </si>
-  <si>
-    <t>The medial condyle of the knee, also called the medial tubercle or medial process, is an important anatomical structure within the knee joint. This is a bony protrusion located on the inside of the femur, close to the knee joint. The medial condyle is crucial to the stability and function of the knee joint</t>
-  </si>
-  <si>
-    <t>It is located on the medial side of the shin and is the longest bone of the skeleton after the femur. It has a triangular shape in cross-section. At the top, where it is involved in the formation of the knee joint, the bone thickens significantly, tapers downwards, and then widens again, although to a lesser extent than at the top. Like any long bone, it consists of a shaft and two ends</t>
-  </si>
-  <si>
-    <t>The articular surface of the tibia is concave and adheres to the corresponding articular surface of the femur. The shape of this surface is asymmetrical, which allows for certain limitations in the mobility of the knee joint, protecting it against excessive twisting.</t>
-  </si>
-  <si>
-    <t>That is, the posterior one, above the apex, is covered with a thick layer of hyaline cartilage. It is divided into two fields, the lateral field of which is larger than the medial one, both of these parts are divided by a longitudinally running hill. It corresponds to a longitudinal groove on the patella surface of the femur.</t>
-  </si>
-  <si>
-    <t>The flat sagittal articular surface is located on the lateral condyle of the tibia. The articular surface of the fibula is directed downwards, posteriorly and laterally and is adjacent to the articular surface of the head of the fibula.</t>
-  </si>
-  <si>
     <t>It extends from the lateral surface of the femur to the so-called the head of the fibula and is responsible for the stability of the knee from the lateral side</t>
   </si>
   <si>
-    <t>It extends from the medial surface of the femur to the medial surface of the tibia, hence it is responsible for the stability of the knee joint from the medial side (i.e. from the inside).</t>
-  </si>
-  <si>
-    <t>The ligament attaches near the posterior attachment of the lateral meniscus. It runs upwards and medially posteriorly from the posterior cruciate ligament. It usually joins it, ending at its attachment to the inner surface of the medial condyle of the femur.</t>
+    <t>Rzepka znajduje się ona u dolnego końca kości udowej.  To spłaszczona, trójkątna kość o zaokrąglonych brzegach, która jest częścią ścięgna mięśnia czworogłowego uda.</t>
+  </si>
+  <si>
+    <t>Kość piszczelowa to kość długa, która pełni funkcję strukturalną i stanowi część budowy podudzia. Jej dalszy koniec tworzy kostkę przyśrodkową.</t>
+  </si>
+  <si>
+    <t>Kość udowa jest najdłuższą kością w ludzkim ciele. Jak każda kość długa, składa się z trzonu oraz dwóch końców. Na tylnej powierzchni trzonu wyróżnia się wydatną kresę chropową, która składa się z dwóch warg: wargi przyśrodkowej (labium mediale) i wargi bocznej (labium laterale). Ku dolnej części obie wargi rozchodzą się, ograniczając powierzchnię podkolanową (facies poplitea). Warga przyśrodkowa kończy się u dołu guzkiem przywodziciela (tuberculum adductorium).</t>
+  </si>
+  <si>
+    <t>Więzadło rzepki łączy ją z kością piszczelową i jest istotne w ruchach zgięcia i prostowania stawu kolanowego. Rzepka porusza się wspólnie z kością piszczelową. W sytuacji, gdy kolano jest wyprostowane, a mięśnie prostujące są napięte, dolna część powierzchni stawowej rzepki spoczywa na powierzchni rzepkowej kości udowej, a górna część leży powyżej. Gdy kolano jest zgięte, rzepka przesuwa się ku dołowi i ku tyłowi, umieszczając się w rowku pomiędzy oboma wyrostkami kości udowej, co pozwala na jej unieruchomienie. Gdy kolano jest wyprostowane, a mięśnie są rozluźnione, rzepka może być przesuwana na boki. Poniżej powierzchni stawowej rzepki znajduje się wypukłe chropowate pole, które służy jako miejsce przyczepu więzadła rzepki.</t>
+  </si>
+  <si>
+    <t>Więzadło krzyżowe przednie biegnie od powierzchni przyśrodkowej kłykcia bocznego kości udowej w kierunku przednio-przyśrodkowym, kończąc się w obszarze międzykłykciowym przednim na kości piszczelowej.</t>
+  </si>
+  <si>
+    <t>Więzadło krzyżowe tylne biegnie od powierzchni przyśrodkowej kłykcia przyśrodkowego w dół, kończąc się w obszarze międzykłykciowym tylnym na kości piszczelowej.</t>
+  </si>
+  <si>
+    <t>Więzadło poprzeczne kolana rozciąga się pomiędzy przednimi punktami obu łąkotek, łącząc je ze sobą. To cienkie, okrągłe więzadło, które czasami może nie rozwijać się w pełni lub być całkowicie nieobecne. Podczas ruchów obrotowych stawu, szczególnie na zewnątrz, więzadło to napina się.</t>
+  </si>
+  <si>
+    <t>Łąkotka przyśrodkowa przybiera kształt półkolisty. Przyczepia się do pola międzykłykciowego, zarówno z przodu, jak i z tyłu. Jest silnie przytwierdzona do torebki stawowej, a na zewnątrz jest powiązana z więzadłem pobocznym piszczelowym, co ogranicza jej ruchomość.</t>
+  </si>
+  <si>
+    <t>Łąkotka boczna ma niemal całkowicie kolisty kształt i przytwierdza się do obszaru międzykłykciowego zarówno z przodu, jak i z tyłu. W przeciwieństwie do łąkotki przyśrodkowej, nie jest bezpośrednio przytwierdzona do torebki stawowej, co sprawia, że jest bardziej ruchoma.</t>
+  </si>
+  <si>
+    <t>Kłykieć przyśrodkowy stawu kolanowego, nazywany również guzkiem przyśrodkowym lub wyrostkiem przyśrodkowym, to istotna struktura anatomiczna w obrębie stawu kolanowego. Jest to wyrostek kostny, który znajduje się na wewnętrznej stronie kości udowej, blisko stawu kolanowego. Kłykieć przyśrodkowy odgrywa kluczową rolę w zapewnianiu stabilności i prawidłowym funkcjonowaniu stawu kolanowego.</t>
+  </si>
+  <si>
+    <t>Kość strzałkowa, znajdująca się po stronie przyśrodkowej goleni, jest najdłuższą kością w ludzkim szkielecie, po kości udowej. W przekroju poprzecznym ma kształt trójkątny. W górnej części, gdzie bierze udział w tworzeniu stawu kolanowego, kość jest znacznie grubsza, w miarę jak schodzi ku dołowi, zwęża się, a później znów nieco rozszerza, chociaż w mniejszym stopniu niż u góry. Jak każda kość długa, składa się z trzonu i dwóch końców.</t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa kości piszczelowej jest wklęsła i pasuje do odpowiedniej powierzchni stawowej kości udowej. Kształt tej powierzchni jest asymetryczny, co ma istotne znaczenie dla ograniczenia zakresu ruchu stawu kolanowego i chroni go przed nadmiernymi skręceniami.</t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa rzepki, znajdująca się z tyłu i pokrywająca obszar powyżej jej wierzchołka, jest pokryta grubą warstwą chrząstki szklistej. Ta powierzchnia stawowa jest podzielona na dwa pola, z których pole boczne jest większe od przyśrodkowego. Obie te części są oddzielone podłużnym wzniesieniem, które odpowiada podłużnemu rowkowi na powierzchni rzepkowej kości udowej.</t>
+  </si>
+  <si>
+    <t>Powierzchnia stawowa strzałki znajduje się na kłykciu bocznym kości piszczelowej. Powierzchnia ta skierowana jest ku dołowi, ku tyłowi oraz na bok i przylega do powierzchni stawowej głowy strzałki.</t>
+  </si>
+  <si>
+    <t>Więzadło poboczne strzałkowe rozciąga się od bocznej powierzchni kości udowej aż do tzw. głowy kości strzałkowej, pełniąc istotną rolę w zapewnianiu stabilności kolana od strony bocznej.</t>
+  </si>
+  <si>
+    <t>Więzadło łąkotkowo-udowe tylne przyczepia się w okolicy tylnego przyczepu łąkotki bocznej, a jego bieg kieruje się ku górze i przyśrodkowo do tyłu, podążając obok więzadła krzyżowego tylnego. Zazwyczaj łączy się z nim na końcu, łącząc się z miejscem przyczepu tego więzadła do wewnętrznej powierzchni kłykcia przyśrodkowego kości udowej.</t>
+  </si>
+  <si>
+    <t>The patella is located at the lower end of the femur. It is a flattened, triangular bone with rounded edges that is part of the quadriceps tendon.</t>
+  </si>
+  <si>
+    <t>The tibia is a long bone that has a structural function and is part of the structure of the lower leg. Its distal end forms the medial malleolus.</t>
+  </si>
+  <si>
+    <t>The femur is the longest bone in the human body. Like any long bone, it consists of a shaft and two ends. On the back surface of the shaft there is a prominent rough line, which consists of two lips: the medial lip (labium mediale) and the lateral lip (labium laterale). Towards the lower part, both lips diverge, limiting the popliteal surface (facies poplitea). The medial lip ends at the bottom with the adductor tubercle (tuberculum adductorium).</t>
+  </si>
+  <si>
+    <t>The patellar ligament connects it to the shin bone and is important in the flexion and extension movements of the knee joint. The patella moves together with the tibia. When the knee is straight and the extensor muscles are tense, the lower part of the articular surface of the patella rests on the patella surface of the femur and the upper part lies above it. When the knee is bent, the patella moves downwards and backwards, placing itself in the groove between the two processes of the femur, which allows it to be immobilized. When the knee is straight and the muscles are relaxed, the patella can be moved sideways. Below the articular surface of the patella is a convex rough area that serves as the attachment site for the patellar ligament.</t>
+  </si>
+  <si>
+    <t>The anterior cruciate ligament runs from the medial surface of the lateral femoral condyle in an anteromedial direction, ending in the anterior intercondylar region on the tibia.</t>
+  </si>
+  <si>
+    <t>The posterior cruciate ligament runs from the medial surface of the medial condyle downwards, ending in the posterior intercondylar region on the tibia.</t>
+  </si>
+  <si>
+    <t>The transverse knee ligament extends between the front points of both menisci, connecting them together. This is a thin, round ligament that sometimes may not fully develop or be completely absent. During rotational movements of the joint, especially externally, this ligament tightens.</t>
+  </si>
+  <si>
+    <t>The medial meniscus takes on a semicircular shape. It attaches to the intercondylar area, both anteriorly and posteriorly. It is strongly attached to the joint capsule, and externally it is connected to the tibial collateral ligament, which limits its mobility.</t>
+  </si>
+  <si>
+    <t>The lateral meniscus is almost completely circular in shape and attaches to the intercondylar region both anteriorly and posteriorly. Unlike the medial meniscus, it is not directly attached to the joint capsule, which makes it more mobile.</t>
+  </si>
+  <si>
+    <t>The medial condyle of the knee joint, also called the medial tubercle or medial process, is an important anatomical structure within the knee joint. This is a bony prominence that is located on the inside of the femur, close to the knee joint. The medial condyle plays a key role in ensuring stability and proper functioning of the knee joint.</t>
+  </si>
+  <si>
+    <t>The fibula, located on the medial side of the shin, is the longest bone in the human skeleton, after the femur. It has a triangular shape in cross-section. In the upper part, where it is involved in the formation of the knee joint, the bone is much thicker, as it goes downwards, it narrows and then widens slightly again, although to a lesser extent than at the top. Like any long bone, it consists of a shaft and two ends.</t>
+  </si>
+  <si>
+    <t>The articular surface of the tibia is concave and fits into the corresponding articular surface of the femur. The shape of this surface is asymmetric, which is important for limiting the range of motion of the knee joint and protecting it against excessive twisting.</t>
+  </si>
+  <si>
+    <t>The articular surface of the patella, located at the back and covering the area above its tip, is covered with a thick layer of hyaline cartilage. This articular surface is divided into two areas, the lateral area of which is larger than the medial area. Both of these parts are separated by a longitudinal elevation that corresponds to a longitudinal groove on the patella surface of the femur.</t>
+  </si>
+  <si>
+    <t>The articular surface of the fibula is located on the lateral condyle of the tibia. This surface is directed downwards, backwards and laterally and is adjacent to the articular surface of the head of the fibula.</t>
+  </si>
+  <si>
+    <t>The fibular collateral ligament extends from the lateral surface of the femur to the so-called the head of the fibula, playing an important role in ensuring lateral stability of the knee.</t>
+  </si>
+  <si>
+    <t>The posterior meniscofemoral ligament attaches near the posterior attachment of the lateral meniscus, and its course directs upwards and medially posteriorly, following the posterior cruciate ligament. It usually joins it at the end, connecting to the point of attachment of this ligament to the inner surface of the medial femoral condyle.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FA13F9-4EBF-46CA-BDCD-3827A8DF10DF}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="128" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -591,35 +591,35 @@
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -627,150 +627,150 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>52</v>
